--- a/genres.xlsx
+++ b/genres.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>adventure</t>
   </si>
@@ -41,9 +41,6 @@
     <t>fantasy</t>
   </si>
   <si>
-    <t>history</t>
-  </si>
-  <si>
     <t>horror</t>
   </si>
   <si>
@@ -101,16 +98,16 @@
     <t>{</t>
   </si>
   <si>
-    <t>Why is that?</t>
-  </si>
-  <si>
-    <t>because</t>
-  </si>
-  <si>
-    <t>Maybe</t>
-  </si>
-  <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>Hierarchy is</t>
+  </si>
+  <si>
+    <t>Essential</t>
+  </si>
+  <si>
+    <t>Stupid</t>
   </si>
 </sst>
 </file>
@@ -148,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +179,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,10 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,6 +343,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -644,46 +654,46 @@
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="31" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="31" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5">
         <v>28</v>
       </c>
-      <c r="E2" s="24" t="str">
+      <c r="E2" s="22" t="str">
         <f>IF(C2&lt;&gt;0,CONCATENATE("[" &amp; D2 &amp; "," &amp; C2 &amp; "],"),"")</f>
-        <v>[28,3],</v>
-      </c>
-      <c r="F2" s="25" t="str">
+        <v>[28,1],</v>
+      </c>
+      <c r="F2" s="23" t="str">
         <f>E2</f>
-        <v>[28,3],</v>
+        <v>[28,1],</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -699,18 +709,18 @@
       <c r="D3" s="5">
         <v>12</v>
       </c>
-      <c r="E3" s="24" t="str">
-        <f t="shared" ref="E3:E17" si="0">IF(C3&lt;&gt;0,CONCATENATE("[" &amp; D3 &amp; "," &amp; C3 &amp; "],"),"")</f>
+      <c r="E3" s="22" t="str">
+        <f t="shared" ref="E3:E16" si="0">IF(C3&lt;&gt;0,CONCATENATE("[" &amp; D3 &amp; "," &amp; C3 &amp; "],"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="25" t="str">
+      <c r="F3" s="23" t="str">
         <f>F2&amp;E3</f>
-        <v>[28,3],</v>
+        <v>[28,1],</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
+      <c r="A4" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -721,13 +731,13 @@
       <c r="D4" s="5">
         <v>16</v>
       </c>
-      <c r="E4" s="24" t="str">
+      <c r="E4" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F4" s="25" t="str">
-        <f t="shared" ref="F4:F18" si="1">F3&amp;E4</f>
-        <v>[28,3],</v>
+      <c r="F4" s="23" t="str">
+        <f t="shared" ref="F4:F17" si="1">F3&amp;E4</f>
+        <v>[28,1],</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -743,35 +753,35 @@
       <c r="D5" s="5">
         <v>35</v>
       </c>
-      <c r="E5" s="24" t="str">
+      <c r="E5" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F5" s="25" t="str">
+      <c r="F5" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,3],</v>
+        <v>[28,1],</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
+      <c r="A6" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5">
         <v>80</v>
       </c>
-      <c r="E6" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[80,2],</v>
-      </c>
-      <c r="F6" s="25" t="str">
+      <c r="E6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>[80,1],</v>
+      </c>
+      <c r="F6" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,3],[80,2],</v>
+        <v>[28,1],[80,1],</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -782,23 +792,23 @@
         <v>4</v>
       </c>
       <c r="C7" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5">
         <v>99</v>
       </c>
-      <c r="E7" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[99,3],</v>
-      </c>
-      <c r="F7" s="25" t="str">
+      <c r="E7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,3],[80,2],[99,3],</v>
+        <v>[28,1],[80,1],</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
+      <c r="A8" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -809,18 +819,18 @@
       <c r="D8" s="5">
         <v>18</v>
       </c>
-      <c r="E8" s="24" t="str">
+      <c r="E8" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="25" t="str">
+      <c r="F8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,3],[80,2],[99,3],</v>
+        <v>[28,1],[80,1],</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -831,13 +841,13 @@
       <c r="D9" s="5">
         <v>10751</v>
       </c>
-      <c r="E9" s="24" t="str">
+      <c r="E9" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F9" s="25" t="str">
+      <c r="F9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,3],[80,2],[99,3],</v>
+        <v>[28,1],[80,1],</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -846,18 +856,18 @@
         <v>7</v>
       </c>
       <c r="C10" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5">
         <v>14</v>
       </c>
-      <c r="E10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[14,-2],</v>
-      </c>
-      <c r="F10" s="25" t="str">
+      <c r="E10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,3],[80,2],[99,3],[14,-2],</v>
+        <v>[28,1],[80,1],</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -866,18 +876,18 @@
         <v>8</v>
       </c>
       <c r="C11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5">
-        <v>36</v>
-      </c>
-      <c r="E11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F11" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>[28,3],[80,2],[99,3],[14,-2],</v>
+        <v>27</v>
+      </c>
+      <c r="E11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>[27,1],</v>
+      </c>
+      <c r="F11" s="23" t="str">
+        <f>F10&amp;E11</f>
+        <v>[28,1],[80,1],[27,1],</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -889,15 +899,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="5">
-        <v>27</v>
-      </c>
-      <c r="E12" s="24" t="str">
+        <v>10402</v>
+      </c>
+      <c r="E12" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="25" t="str">
+      <c r="F12" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,3],[80,2],[99,3],[14,-2],</v>
+        <v>[28,1],[80,1],[27,1],</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -909,15 +919,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>10402</v>
-      </c>
-      <c r="E13" s="24" t="str">
+        <v>9648</v>
+      </c>
+      <c r="E13" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" s="25" t="str">
+      <c r="F13" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,3],[80,2],[99,3],[14,-2],</v>
+        <v>[28,1],[80,1],[27,1],</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -926,18 +936,18 @@
         <v>11</v>
       </c>
       <c r="C14" s="5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="5">
-        <v>9648</v>
-      </c>
-      <c r="E14" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" s="25" t="str">
+        <v>10749</v>
+      </c>
+      <c r="E14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>[10749,-1],</v>
+      </c>
+      <c r="F14" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,3],[80,2],[99,3],[14,-2],</v>
+        <v>[28,1],[80,1],[27,1],[10749,-1],</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -949,15 +959,15 @@
         <v>0</v>
       </c>
       <c r="D15" s="5">
-        <v>10749</v>
-      </c>
-      <c r="E15" s="24" t="str">
+        <v>878</v>
+      </c>
+      <c r="E15" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="25" t="str">
+      <c r="F15" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,3],[80,2],[99,3],[14,-2],</v>
+        <v>[28,1],[80,1],[27,1],[10749,-1],</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -966,71 +976,51 @@
         <v>13</v>
       </c>
       <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>53</v>
+      </c>
+      <c r="E16" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>[53,1],</v>
+      </c>
+      <c r="F16" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>[28,1],[80,1],[27,1],[10749,-1],[53,1],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D16" s="5">
-        <v>878</v>
-      </c>
-      <c r="E16" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="D17" s="27">
+        <v>10752</v>
+      </c>
+      <c r="E17" s="22" t="str">
+        <f>IF(C17&lt;&gt;0,CONCATENATE("[" &amp; D17 &amp; "," &amp; C17 &amp; "],"),"")</f>
         <v/>
       </c>
-      <c r="F16" s="25" t="str">
+      <c r="F17" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,3],[80,2],[99,3],[14,-2],</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>53</v>
-      </c>
-      <c r="E17" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[53,2],</v>
-      </c>
-      <c r="F17" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>[28,3],[80,2],[99,3],[14,-2],[53,2],</v>
+        <v>[28,1],[80,1],[27,1],[10749,-1],[53,1],</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10">
-        <v>10752</v>
-      </c>
-      <c r="E18" s="24" t="str">
-        <f>IF(C18&lt;&gt;0,CONCATENATE("[" &amp; D18 &amp; "," &amp; C18 &amp; "],"),"")</f>
-        <v>[10752,1],</v>
-      </c>
-      <c r="F18" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>[28,3],[80,2],[99,3],[14,-2],[53,2],[10752,1],</v>
+      <c r="F18" s="11" t="str">
+        <f>LEFT(F17,LEN(F17)-1)</f>
+        <v>[28,1],[80,1],[27,1],[10749,-1],[53,1]</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="F19" s="13" t="str">
-        <f>LEFT(F18,LEN(F18)-1)</f>
-        <v>[28,3],[80,2],[99,3],[14,-2],[53,2],[10752,1]</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="E20" s="14"/>
-      <c r="F20" s="13" t="str">
-        <f>CONCATENATE("["&amp;F19&amp;"]")</f>
-        <v>[[28,3],[80,2],[99,3],[14,-2],[53,2],[10752,1]]</v>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11" t="str">
+        <f>CONCATENATE("["&amp;F18&amp;"]")</f>
+        <v>[[28,1],[80,1],[27,1],[10749,-1],[53,1]]</v>
       </c>
     </row>
   </sheetData>
@@ -1049,79 +1039,79 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="3" width="10.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="20"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="str">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="str">
         <f>CONCATENATE("type: """&amp;Calcul!A9&amp;""",")</f>
         <v>type: "genre",</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20" t="str">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="str">
         <f>CONCATENATE("question: """&amp;Calcul!A3&amp;""",")</f>
-        <v>question: "Why is that?",</v>
+        <v>question: "Hierarchy is",</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20" t="str">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="str">
         <f>CONCATENATE("answer1: """&amp;Calcul!A5&amp;""",")</f>
-        <v>answer1: "because",</v>
+        <v>answer1: "Essential",</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20" t="str">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="str">
         <f>CONCATENATE("answer2: """&amp;Calcul!A7&amp;""",")</f>
-        <v>answer2: "Maybe",</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20" t="str">
-        <f>CONCATENATE("effect: "&amp;Calcul!F20)</f>
-        <v>effect: [[28,3],[80,2],[99,3],[14,-2],[53,2],[10752,1]]</v>
+        <v>answer2: "Stupid",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="str">
+        <f>CONCATENATE("effect: "&amp;Calcul!F19)</f>
+        <v>effect: [[28,1],[80,1],[27,1],[10749,-1],[53,1]]</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="23"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/genres.xlsx
+++ b/genres.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>adventure</t>
   </si>
@@ -99,15 +99,6 @@
   </si>
   <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>Hierarchy is</t>
-  </si>
-  <si>
-    <t>Essential</t>
-  </si>
-  <si>
-    <t>Stupid</t>
   </si>
 </sst>
 </file>
@@ -645,7 +636,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -682,24 +673,22 @@
         <v>15</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
         <v>28</v>
       </c>
       <c r="E2" s="22" t="str">
-        <f>IF(C2&lt;&gt;0,CONCATENATE("[" &amp; D2 &amp; "," &amp; C2 &amp; "],"),"")</f>
-        <v>[28,1],</v>
+        <f>IF(C2&lt;&gt;0,CONCATENATE("[" &amp; D2 &amp; ", " &amp; C2 &amp; "], "),"")</f>
+        <v/>
       </c>
       <c r="F2" s="23" t="str">
         <f>E2</f>
-        <v>[28,1],</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="A3" s="6"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -710,12 +699,12 @@
         <v>12</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f t="shared" ref="E3:E16" si="0">IF(C3&lt;&gt;0,CONCATENATE("[" &amp; D3 &amp; "," &amp; C3 &amp; "],"),"")</f>
+        <f t="shared" ref="E3:E17" si="0">IF(C3&lt;&gt;0,CONCATENATE("[" &amp; D3 &amp; ", " &amp; C3 &amp; "], "),"")</f>
         <v/>
       </c>
       <c r="F3" s="23" t="str">
         <f>F2&amp;E3</f>
-        <v>[28,1],</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -737,13 +726,11 @@
       </c>
       <c r="F4" s="23" t="str">
         <f t="shared" ref="F4:F17" si="1">F3&amp;E4</f>
-        <v>[28,1],</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -759,7 +746,7 @@
       </c>
       <c r="F5" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,1],</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -770,24 +757,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5">
         <v>80</v>
       </c>
       <c r="E6" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>[80,1],</v>
+        <v/>
       </c>
       <c r="F6" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,1],[80,1],</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -803,7 +788,7 @@
       </c>
       <c r="F7" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,1],[80,1],</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -825,7 +810,7 @@
       </c>
       <c r="F8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,1],[80,1],</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -847,7 +832,7 @@
       </c>
       <c r="F9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,1],[80,1],</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -867,7 +852,7 @@
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,1],[80,1],</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -876,18 +861,18 @@
         <v>8</v>
       </c>
       <c r="C11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5">
         <v>27</v>
       </c>
       <c r="E11" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>[27,1],</v>
+        <v/>
       </c>
       <c r="F11" s="23" t="str">
         <f>F10&amp;E11</f>
-        <v>[28,1],[80,1],[27,1],</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -907,7 +892,7 @@
       </c>
       <c r="F12" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,1],[80,1],[27,1],</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -927,7 +912,7 @@
       </c>
       <c r="F13" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,1],[80,1],[27,1],</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -936,18 +921,18 @@
         <v>11</v>
       </c>
       <c r="C14" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="5">
         <v>10749</v>
       </c>
       <c r="E14" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>[10749,-1],</v>
+        <v/>
       </c>
       <c r="F14" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,1],[80,1],[27,1],[10749,-1],</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -967,7 +952,7 @@
       </c>
       <c r="F15" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,1],[80,1],[27,1],[10749,-1],</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -976,18 +961,18 @@
         <v>13</v>
       </c>
       <c r="C16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="5">
         <v>53</v>
       </c>
       <c r="E16" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>[53,1],</v>
+        <v/>
       </c>
       <c r="F16" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,1],[80,1],[27,1],[10749,-1],[53,1],</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1002,25 +987,25 @@
         <v>10752</v>
       </c>
       <c r="E17" s="22" t="str">
-        <f>IF(C17&lt;&gt;0,CONCATENATE("[" &amp; D17 &amp; "," &amp; C17 &amp; "],"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F17" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>[28,1],[80,1],[27,1],[10749,-1],[53,1],</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="F18" s="11" t="str">
-        <f>LEFT(F17,LEN(F17)-1)</f>
-        <v>[28,1],[80,1],[27,1],[10749,-1],[53,1]</v>
+      <c r="F18" s="11" t="e">
+        <f>LEFT(F17,LEN(F17)-2)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="E19" s="12"/>
-      <c r="F19" s="11" t="str">
+      <c r="F19" s="11" t="e">
         <f>CONCATENATE("["&amp;F18&amp;"]")</f>
-        <v>[[28,1],[80,1],[27,1],[10749,-1],[53,1]]</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -1075,7 +1060,7 @@
       <c r="C4" s="17"/>
       <c r="D4" s="18" t="str">
         <f>CONCATENATE("question: """&amp;Calcul!A3&amp;""",")</f>
-        <v>question: "Hierarchy is",</v>
+        <v>question: "",</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1084,7 +1069,7 @@
       <c r="C5" s="17"/>
       <c r="D5" s="18" t="str">
         <f>CONCATENATE("answer1: """&amp;Calcul!A5&amp;""",")</f>
-        <v>answer1: "Essential",</v>
+        <v>answer1: "",</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1093,16 +1078,16 @@
       <c r="C6" s="17"/>
       <c r="D6" s="18" t="str">
         <f>CONCATENATE("answer2: """&amp;Calcul!A7&amp;""",")</f>
-        <v>answer2: "Stupid",</v>
+        <v>answer2: "",</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="18" t="str">
+      <c r="D7" s="18" t="e">
         <f>CONCATENATE("effect: "&amp;Calcul!F19)</f>
-        <v>effect: [[28,1],[80,1],[27,1],[10749,-1],[53,1]]</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:4">
